--- a/benders decomposition/results_without_decomposition.xlsx
+++ b/benders decomposition/results_without_decomposition.xlsx
@@ -408,13 +408,13 @@
         <v>1500000</v>
       </c>
       <c r="B2">
-        <v>-49095981250.8184</v>
+        <v>-49134425089.22117</v>
       </c>
       <c r="C2">
-        <v>0.5043033889187736</v>
+        <v>1.809670881189074</v>
       </c>
       <c r="D2">
-        <v>0.02025510000385111</v>
+        <v>0.009120199989411049</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>10000000</v>
       </c>
       <c r="B3">
-        <v>-49180142757.7693</v>
+        <v>-49436435013.78778</v>
       </c>
       <c r="C3">
-        <v>3.362022592791824</v>
+        <v>12.0644725412605</v>
       </c>
       <c r="D3">
-        <v>0.02844449999975041</v>
+        <v>0.009230700001353398</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>15000000</v>
       </c>
       <c r="B4">
-        <v>-49229649526.56395</v>
+        <v>-49614087910.59167</v>
       </c>
       <c r="C4">
-        <v>5.043033889187735</v>
+        <v>18.09670881189074</v>
       </c>
       <c r="D4">
-        <v>0.02678119999472983</v>
+        <v>0.008834100008243695</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>100000000</v>
       </c>
       <c r="B5">
-        <v>-50071264596.07301</v>
+        <v>-52634187156.25777</v>
       </c>
       <c r="C5">
-        <v>33.62022592791823</v>
+        <v>120.644725412605</v>
       </c>
       <c r="D5">
-        <v>0.02897749999829102</v>
+        <v>0.009050199994817376</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>200000000</v>
       </c>
       <c r="B6">
-        <v>-51061399971.966</v>
+        <v>-56187245092.33553</v>
       </c>
       <c r="C6">
-        <v>67.24045185583647</v>
+        <v>241.2894508252099</v>
       </c>
       <c r="D6">
-        <v>0.02565220000542467</v>
+        <v>0.009175700004561804</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>300000000</v>
       </c>
       <c r="B7">
-        <v>-52051535347.85901</v>
+        <v>-56443775875.32035</v>
       </c>
       <c r="C7">
-        <v>100.8606777837547</v>
+        <v>250</v>
       </c>
       <c r="D7">
-        <v>0.02734649999911198</v>
+        <v>0.008675800010678358</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>400000000</v>
       </c>
       <c r="B8">
-        <v>-53041670723.752</v>
+        <v>-56443775875.32035</v>
       </c>
       <c r="C8">
-        <v>134.4809037116729</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>0.02864319999935105</v>
+        <v>0.00929040000482928</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>500000000</v>
       </c>
       <c r="B9">
-        <v>-54031806099.645</v>
+        <v>-56443775875.32035</v>
       </c>
       <c r="C9">
-        <v>168.1011296395912</v>
+        <v>250</v>
       </c>
       <c r="D9">
-        <v>0.02185699999972712</v>
+        <v>0.01006959998630919</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>600000000</v>
       </c>
       <c r="B10">
-        <v>-55021941475.53799</v>
+        <v>-56443775875.32035</v>
       </c>
       <c r="C10">
-        <v>201.7213555675094</v>
+        <v>250</v>
       </c>
       <c r="D10">
-        <v>0.02140379999764264</v>
+        <v>0.009266600012779236</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>700000000</v>
       </c>
       <c r="B11">
-        <v>-56012076851.431</v>
+        <v>-56443775875.32035</v>
       </c>
       <c r="C11">
-        <v>235.3415814954276</v>
+        <v>250</v>
       </c>
       <c r="D11">
-        <v>0.02227889999630861</v>
+        <v>0.009562000006553717</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,7 +554,7 @@
         <v>250</v>
       </c>
       <c r="D12">
-        <v>0.02371270000003278</v>
+        <v>0.008792799999355339</v>
       </c>
     </row>
   </sheetData>
